--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>111.162782791409</v>
+        <v>486.3394018716888</v>
       </c>
       <c r="R2">
-        <v>444.6511311656359</v>
+        <v>1945.357607486755</v>
       </c>
       <c r="S2">
-        <v>0.00202550417415426</v>
+        <v>0.008811917891041639</v>
       </c>
       <c r="T2">
-        <v>0.001127349077807727</v>
+        <v>0.00470211369346549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>9773.940965210977</v>
+        <v>9093.308124744113</v>
       </c>
       <c r="R3">
-        <v>58643.64579126587</v>
+        <v>54559.84874846468</v>
       </c>
       <c r="S3">
-        <v>0.1780916033752093</v>
+        <v>0.1647604209011376</v>
       </c>
       <c r="T3">
-        <v>0.1486825409141698</v>
+        <v>0.1318763249112841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>79.03531305566966</v>
+        <v>50.52919251258083</v>
       </c>
       <c r="R4">
-        <v>474.211878334018</v>
+        <v>303.175155075485</v>
       </c>
       <c r="S4">
-        <v>0.001440107493532625</v>
+        <v>0.0009155316098344243</v>
       </c>
       <c r="T4">
-        <v>0.001202296106441662</v>
+        <v>0.0007328030808899321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>4271.73718831449</v>
+        <v>2371.724178838551</v>
       </c>
       <c r="R5">
-        <v>17086.94875325796</v>
+        <v>9486.896715354205</v>
       </c>
       <c r="S5">
-        <v>0.07783559648787118</v>
+        <v>0.04297294984467941</v>
       </c>
       <c r="T5">
-        <v>0.04332150436463783</v>
+        <v>0.02293072840802279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>200.7424538200678</v>
+        <v>338.1600775633208</v>
       </c>
       <c r="R6">
-        <v>1204.454722920407</v>
+        <v>2028.960465379925</v>
       </c>
       <c r="S6">
-        <v>0.003657741088629348</v>
+        <v>0.006127076741157048</v>
       </c>
       <c r="T6">
-        <v>0.003053721954076567</v>
+        <v>0.004904189723805324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H7">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I7">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J7">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>55.43033503869265</v>
+        <v>19.91017849529334</v>
       </c>
       <c r="R7">
-        <v>332.5820102321559</v>
+        <v>119.46107097176</v>
       </c>
       <c r="S7">
-        <v>0.001009999679535893</v>
+        <v>0.000360749833185007</v>
       </c>
       <c r="T7">
-        <v>0.0008432139181739636</v>
+        <v>0.0002887487295346492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>35.56215601489266</v>
+        <v>167.2306713894099</v>
       </c>
       <c r="R8">
-        <v>213.372936089356</v>
+        <v>1003.384028336459</v>
       </c>
       <c r="S8">
-        <v>0.0006479803189638837</v>
+        <v>0.003030029932750611</v>
       </c>
       <c r="T8">
-        <v>0.0005409764326897829</v>
+        <v>0.002425274284423591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>3126.787624032436</v>
+        <v>3126.787624032435</v>
       </c>
       <c r="R9">
         <v>28141.08861629192</v>
       </c>
       <c r="S9">
-        <v>0.05697339725702728</v>
+        <v>0.05665384235712885</v>
       </c>
       <c r="T9">
-        <v>0.07134768828073547</v>
+        <v>0.06801967803885792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>25.28423689109756</v>
+        <v>17.37476082777478</v>
       </c>
       <c r="R10">
-        <v>227.558132019878</v>
+        <v>156.372847449973</v>
       </c>
       <c r="S10">
-        <v>0.0004607056973314738</v>
+        <v>0.0003148109431430188</v>
       </c>
       <c r="T10">
-        <v>0.0005769409595512673</v>
+        <v>0.0003779679913096463</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>1366.574140470322</v>
+        <v>815.5313454991448</v>
       </c>
       <c r="R11">
-        <v>8199.444842821931</v>
+        <v>4893.188072994869</v>
       </c>
       <c r="S11">
-        <v>0.02490043480656573</v>
+        <v>0.01477650222550787</v>
       </c>
       <c r="T11">
-        <v>0.02078851471232916</v>
+        <v>0.01182729928635388</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J12">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>64.21964512131078</v>
+        <v>116.2783368782628</v>
       </c>
       <c r="R12">
-        <v>577.976806091797</v>
+        <v>1046.505031904365</v>
       </c>
       <c r="S12">
-        <v>0.001170150260631772</v>
+        <v>0.002106831470234156</v>
       </c>
       <c r="T12">
-        <v>0.001465377177010089</v>
+        <v>0.002529501836505685</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J13">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>17.73275347291955</v>
+        <v>6.846232290529779</v>
       </c>
       <c r="R13">
-        <v>159.594781256276</v>
+        <v>61.61609061476801</v>
       </c>
       <c r="S13">
-        <v>0.0003231096350479528</v>
+        <v>0.0001240459575657882</v>
       </c>
       <c r="T13">
-        <v>0.0004046296452693997</v>
+        <v>0.0001489319302027011</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>81.40768834951866</v>
+        <v>460.8925475782192</v>
       </c>
       <c r="R14">
-        <v>488.4461300971119</v>
+        <v>2765.355285469315</v>
       </c>
       <c r="S14">
-        <v>0.001483334695476358</v>
+        <v>0.008350849777381961</v>
       </c>
       <c r="T14">
-        <v>0.001238385007320742</v>
+        <v>0.00668412579006555</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>7157.736789798871</v>
+        <v>8617.516761746474</v>
       </c>
       <c r="R15">
-        <v>64419.63110818983</v>
+        <v>77557.65085571827</v>
       </c>
       <c r="S15">
-        <v>0.1304215797875436</v>
+        <v>0.1561396215008288</v>
       </c>
       <c r="T15">
-        <v>0.1633267220801896</v>
+        <v>0.1874641920427328</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>57.87982247543956</v>
+        <v>47.88534133686722</v>
       </c>
       <c r="R16">
-        <v>520.918402278956</v>
+        <v>430.968072031805</v>
       </c>
       <c r="S16">
-        <v>0.001054631946766726</v>
+        <v>0.0008676280277128405</v>
       </c>
       <c r="T16">
-        <v>0.001320713789443837</v>
+        <v>0.001041690671755305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H17">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I17">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J17">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>3128.31543979871</v>
+        <v>2247.627880305194</v>
       </c>
       <c r="R17">
-        <v>18769.89263879226</v>
+        <v>13485.76728183116</v>
       </c>
       <c r="S17">
-        <v>0.05700123568580909</v>
+        <v>0.04072446578385754</v>
       </c>
       <c r="T17">
-        <v>0.04758836686510114</v>
+        <v>0.03259637752912168</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H18">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I18">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J18">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>147.0094460460438</v>
+        <v>320.4664459379472</v>
       </c>
       <c r="R18">
-        <v>1323.085014414394</v>
+        <v>2884.198013441525</v>
       </c>
       <c r="S18">
-        <v>0.002678668517727856</v>
+        <v>0.005806488221129493</v>
       </c>
       <c r="T18">
-        <v>0.003354492019285261</v>
+        <v>0.006971379925971626</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H19">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I19">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J19">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>40.59322127988355</v>
+        <v>18.86841340454222</v>
       </c>
       <c r="R19">
-        <v>365.338991518952</v>
+        <v>169.81572064088</v>
       </c>
       <c r="S19">
-        <v>0.0007396516808962615</v>
+        <v>0.000341874232306026</v>
       </c>
       <c r="T19">
-        <v>0.0009262645393398822</v>
+        <v>0.0004104606897560496</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>30.210954423993</v>
+        <v>149.1025770694268</v>
       </c>
       <c r="R20">
-        <v>120.843817695972</v>
+        <v>596.4103082777071</v>
       </c>
       <c r="S20">
-        <v>0.0005504757325642542</v>
+        <v>0.002701569441879476</v>
       </c>
       <c r="T20">
-        <v>0.0003063821429649556</v>
+        <v>0.001441580235265651</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>2656.285472781518</v>
+        <v>2787.838431901133</v>
       </c>
       <c r="R21">
-        <v>15937.71283668911</v>
+        <v>16727.0305914068</v>
       </c>
       <c r="S21">
-        <v>0.04840034747025148</v>
+        <v>0.05051246775576776</v>
       </c>
       <c r="T21">
-        <v>0.0404077817629859</v>
+        <v>0.04043081811394183</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H22">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I22">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J22">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>21.47960118173101</v>
+        <v>15.4913066715715</v>
       </c>
       <c r="R22">
-        <v>128.877607090386</v>
+        <v>92.947840029429</v>
       </c>
       <c r="S22">
-        <v>0.0003913811867628712</v>
+        <v>0.0002806848918460623</v>
       </c>
       <c r="T22">
-        <v>0.0003267506620809462</v>
+        <v>0.0002246637377613327</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H23">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I23">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J23">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>1160.939428348124</v>
+        <v>727.1263356449092</v>
       </c>
       <c r="R23">
-        <v>4643.757713392498</v>
+        <v>2908.505342579637</v>
       </c>
       <c r="S23">
-        <v>0.02115355156655107</v>
+        <v>0.01317470380038709</v>
       </c>
       <c r="T23">
-        <v>0.01177358069916935</v>
+        <v>0.007030133044036921</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H24">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I24">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J24">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>54.5562190063065</v>
+        <v>103.6735638376075</v>
       </c>
       <c r="R24">
-        <v>327.337314037839</v>
+        <v>622.041383025645</v>
       </c>
       <c r="S24">
-        <v>0.000994072355409655</v>
+        <v>0.001878447291115612</v>
       </c>
       <c r="T24">
-        <v>0.0008299167442692325</v>
+        <v>0.001503532971917612</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H25">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I25">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J25">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>15.064424293002</v>
+        <v>6.104088856744</v>
       </c>
       <c r="R25">
-        <v>90.38654575801201</v>
+        <v>36.624533140464</v>
       </c>
       <c r="S25">
-        <v>0.0002744898384197749</v>
+        <v>0.0001105991609938309</v>
       </c>
       <c r="T25">
-        <v>0.0002291621045456494</v>
+        <v>8.852496740639954E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N26">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O26">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P26">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q26">
-        <v>81.93291726355598</v>
+        <v>545.0018054064045</v>
       </c>
       <c r="R26">
-        <v>491.597503581336</v>
+        <v>3270.010832438427</v>
       </c>
       <c r="S26">
-        <v>0.001492904925107667</v>
+        <v>0.009874814052137479</v>
       </c>
       <c r="T26">
-        <v>0.001246374862158071</v>
+        <v>0.007903926071902901</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H27">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I27">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J27">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
         <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P27">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q27">
-        <v>7203.91732135911</v>
+        <v>10190.14565965555</v>
       </c>
       <c r="R27">
-        <v>64835.25589223199</v>
+        <v>91711.31093689999</v>
       </c>
       <c r="S27">
-        <v>0.1312630382063693</v>
+        <v>0.1846338719525129</v>
       </c>
       <c r="T27">
-        <v>0.1643804790239214</v>
+        <v>0.2216749297622416</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H28">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I28">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J28">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N28">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O28">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P28">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q28">
-        <v>58.25325349798533</v>
+        <v>56.62403876614099</v>
       </c>
       <c r="R28">
-        <v>524.279281481868</v>
+        <v>509.616348895269</v>
       </c>
       <c r="S28">
-        <v>0.001061436257309621</v>
+        <v>0.001025963305350356</v>
       </c>
       <c r="T28">
-        <v>0.001329234815939583</v>
+        <v>0.001231791010214375</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H29">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I29">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J29">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N29">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O29">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P29">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q29">
-        <v>3148.498812579881</v>
+        <v>2657.802255828859</v>
       </c>
       <c r="R29">
-        <v>18890.99287547929</v>
+        <v>15946.81353497315</v>
       </c>
       <c r="S29">
-        <v>0.05736899821199094</v>
+        <v>0.0481563598566257</v>
       </c>
       <c r="T29">
-        <v>0.04789539912158845</v>
+        <v>0.03854495954952519</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H30">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I30">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J30">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N30">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O30">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P30">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q30">
-        <v>147.9579266289646</v>
+        <v>378.9490468572049</v>
       </c>
       <c r="R30">
-        <v>1331.621339660682</v>
+        <v>3410.541421714845</v>
       </c>
       <c r="S30">
-        <v>0.002695950843085034</v>
+        <v>0.006866126562937174</v>
       </c>
       <c r="T30">
-        <v>0.003376134645874431</v>
+        <v>0.00824360182387999</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H31">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I31">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J31">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N31">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O31">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P31">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q31">
-        <v>40.85512201631732</v>
+        <v>22.311750156656</v>
       </c>
       <c r="R31">
-        <v>367.6960981468559</v>
+        <v>200.805751409904</v>
       </c>
       <c r="S31">
-        <v>0.000744423790963496</v>
+        <v>0.0004042635855314877</v>
       </c>
       <c r="T31">
-        <v>0.0009322406446435977</v>
+        <v>0.0004853665309644438</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H32">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I32">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J32">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N32">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O32">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P32">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q32">
-        <v>80.69809135428332</v>
+        <v>363.0889043016492</v>
       </c>
       <c r="R32">
-        <v>484.1885481257</v>
+        <v>2178.533425809895</v>
       </c>
       <c r="S32">
-        <v>0.001470405083247115</v>
+        <v>0.00657875878355942</v>
       </c>
       <c r="T32">
-        <v>0.001227590519748924</v>
+        <v>0.005265721743781104</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H33">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I33">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J33">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
         <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P33">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q33">
-        <v>7095.345772172625</v>
+        <v>6788.837735096175</v>
       </c>
       <c r="R33">
-        <v>63858.11194955363</v>
+        <v>61099.53961586557</v>
       </c>
       <c r="S33">
-        <v>0.129284749065441</v>
+        <v>0.1230060333730797</v>
       </c>
       <c r="T33">
-        <v>0.1619030709044905</v>
+        <v>0.1476833774862418</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H34">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I34">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J34">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N34">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O34">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P34">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q34">
-        <v>57.37530811142778</v>
+        <v>37.72383868967388</v>
       </c>
       <c r="R34">
-        <v>516.3777730028501</v>
+        <v>339.514548207065</v>
       </c>
       <c r="S34">
-        <v>0.001045439158276138</v>
+        <v>0.0006835131346318685</v>
       </c>
       <c r="T34">
-        <v>0.001309201676085065</v>
+        <v>0.0008206388378729275</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H35">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I35">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J35">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N35">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O35">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P35">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q35">
-        <v>3101.047213894804</v>
+        <v>1770.670297504324</v>
       </c>
       <c r="R35">
-        <v>18606.28328336883</v>
+        <v>10624.02178502594</v>
       </c>
       <c r="S35">
-        <v>0.05650437959779821</v>
+        <v>0.03208253580455511</v>
       </c>
       <c r="T35">
-        <v>0.04717355884364439</v>
+        <v>0.02567926746362302</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H36">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I36">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J36">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N36">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O36">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P36">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q36">
-        <v>145.7280257858639</v>
+        <v>252.4619053453139</v>
       </c>
       <c r="R36">
-        <v>1311.552232072775</v>
+        <v>2272.157148107824</v>
       </c>
       <c r="S36">
-        <v>0.002655319677219692</v>
+        <v>0.004574323141322957</v>
       </c>
       <c r="T36">
-        <v>0.003325252306112153</v>
+        <v>0.005492019153036898</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H37">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I37">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J37">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N37">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O37">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P37">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q37">
-        <v>40.23938703607777</v>
+        <v>14.86444418544889</v>
       </c>
       <c r="R37">
-        <v>362.1544833247</v>
+        <v>133.77999766904</v>
       </c>
       <c r="S37">
-        <v>0.0007332044445120109</v>
+        <v>0.0002693268551839535</v>
       </c>
       <c r="T37">
-        <v>0.000918190676204417</v>
+        <v>0.0003233589323271285</v>
       </c>
     </row>
   </sheetData>
